--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2108542.659761264</v>
+        <v>2110866.331575131</v>
       </c>
     </row>
     <row r="7">
@@ -656,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.18454619735122</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24.95505229511724</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>47.13383555196372</v>
+      </c>
+      <c r="C3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,43 +834,43 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.170977004479181</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -902,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>72.47049842454874</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.62493210760333</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>16.08643502935159</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>190.3580865263562</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,55 +1144,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>196.9826481283071</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>159.0342159678799</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>96.43005249508282</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,16 +1463,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,10 +1627,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.526135781725</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>218.2545356023573</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>78.88188178727695</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2132,10 +2134,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>128.3010969141651</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>76.04701294868006</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>168.0500184703206</v>
       </c>
     </row>
     <row r="25">
@@ -2515,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.42067328920988</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,10 +2684,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>21.02892979786577</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2752,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>20.07165222581214</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>156.7701852745343</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>232.3303155802433</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>95.15725758733777</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.4163706012978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>190.3453970742847</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>61.60271076108484</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>92.31192385075794</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41964442677787</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>59.67606539615428</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>154.3436670675912</v>
       </c>
       <c r="D42" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,67 +3906,67 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.285385643442</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>131.7659851933074</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.82248702120288</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="D2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>80.73687329735785</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,13 +4336,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4355,25 +4357,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>188.8429925093776</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>134.7899329033677</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>134.7899329033677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959154</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
         <v>57.25840604064623</v>
@@ -4419,13 +4421,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4449,10 +4451,10 @@
         <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>80.82849811456629</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="T4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5536560184564</v>
+        <v>259.0827180527828</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.6254074314342</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5201808117111</v>
+        <v>670.606730582354</v>
       </c>
       <c r="C6" t="n">
-        <v>285.0671515305841</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D6" t="n">
-        <v>285.0671515305841</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E6" t="n">
-        <v>125.8296965251286</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>125.8296965251286</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>125.8296965251286</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>627.7355178317791</v>
+        <v>670.606730582354</v>
       </c>
       <c r="Y6" t="n">
-        <v>627.7355178317791</v>
+        <v>670.606730582354</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>467.0948956420016</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>702.2470038737442</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>702.2470038737442</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>467.0948956420016</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>467.0948956420016</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X9" t="n">
-        <v>467.0948956420016</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y9" t="n">
-        <v>467.0948956420016</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5072,19 +5074,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C12" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>668.2068788942177</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>668.2068788942177</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5363,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5391,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.2428769432372</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5464,22 +5466,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>213.083079827416</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>213.083079827416</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>213.083079827416</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>99.71394423499537</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,10 +5597,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5771,25 +5773,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>262.7299197543128</v>
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>353.3011080883284</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>353.3011080883284</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X21" t="n">
-        <v>353.3011080883284</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>353.3011080883284</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5929,13 +5931,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>700.6811714053606</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>96.85044035762476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>588.4532163200711</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W24" t="n">
-        <v>588.4532163200711</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X24" t="n">
-        <v>588.4532163200711</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y24" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6165,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.7186438601369</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>241.7186438601369</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>241.7186438601369</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.7186438601369</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>35.61171342886701</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6315,13 +6317,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>841.6462828333545</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>639.4596881921204</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="X27" t="n">
-        <v>411.587349213889</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.827050448935</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6400,31 +6402,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>347.7274039646085</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C30" t="n">
-        <v>347.7274039646085</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>198.7929943033573</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>39.55553929790176</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>805.7034330111067</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>577.4798147474958</v>
       </c>
       <c r="W30" t="n">
-        <v>555.4877027295624</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="X30" t="n">
-        <v>555.4877027295624</v>
+        <v>334.0310381033958</v>
       </c>
       <c r="Y30" t="n">
-        <v>347.7274039646085</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659515</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C33" t="n">
-        <v>327.2640844659515</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D33" t="n">
-        <v>327.2640844659515</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E33" t="n">
-        <v>327.2640844659515</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2640844659515</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>188.533259048567</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659515</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659515</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659515</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.8157010833278</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C36" t="n">
-        <v>165.8157010833278</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>901.8321951459041</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>901.8321951459041</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>699.64560050467</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>699.64560050467</v>
       </c>
       <c r="V36" t="n">
-        <v>165.8157010833278</v>
+        <v>699.64560050467</v>
       </c>
       <c r="W36" t="n">
-        <v>165.8157010833278</v>
+        <v>699.64560050467</v>
       </c>
       <c r="X36" t="n">
-        <v>165.8157010833278</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="Y36" t="n">
-        <v>165.8157010833278</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7122,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>313.4946457291688</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>139.0416164480418</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>139.0416164480418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7286,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="40">
@@ -7363,13 +7365,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C42" t="n">
-        <v>720.6083788665362</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D42" t="n">
-        <v>668.2068788942177</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7497,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>720.6083788665362</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>152.3780978509273</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C45" t="n">
-        <v>152.3780978509273</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>945.044542357906</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>945.044542357906</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>945.044542357906</v>
       </c>
       <c r="U45" t="n">
-        <v>360.2295980564601</v>
+        <v>716.820924094295</v>
       </c>
       <c r="V45" t="n">
-        <v>360.2295980564601</v>
+        <v>716.820924094295</v>
       </c>
       <c r="W45" t="n">
-        <v>360.2295980564601</v>
+        <v>716.820924094295</v>
       </c>
       <c r="X45" t="n">
-        <v>152.3780978509273</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y45" t="n">
-        <v>152.3780978509273</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9965,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>51.01501306955593</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,16 +23351,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,19 +23390,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>133.2143369255421</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,10 +23515,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>6.274451367700266</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>151.4765650761118</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.51475106413812</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U20" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>9.042420249045563</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24169,16 +24171,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>108.137662477717</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>81.59806750672088</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>37.63267730698374</v>
       </c>
     </row>
     <row r="25">
@@ -24403,19 +24405,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
-        <v>183.6421058297144</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>73.97595956220519</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>150.6542413059721</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24640,16 +24642,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>124.9975601675717</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>43.39454342028733</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>19.01533732759322</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>77.55124140097797</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>34.81907363519866</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>195.8925415817689</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.55512339155829</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>140.4886632986673</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>83.8157998097186</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>146.0969198073232</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>294.5471194344777</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,19 +25675,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25707,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>18.36483192072453</v>
       </c>
       <c r="D42" t="n">
-        <v>95.56758059204338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170.4484560200386</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25916,7 +25918,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25947,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>15.67908037133134</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>81.33534713144026</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299914</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26314,7 +26316,7 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26329,25 +26331,25 @@
         <v>265857.0760501318</v>
       </c>
       <c r="H2" t="n">
-        <v>265857.076050132</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="I2" t="n">
-        <v>265857.076050132</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="J2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="K2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="L2" t="n">
         <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="N2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="O2" t="n">
         <v>265857.0760501319</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26430,31 +26432,31 @@
         <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
         <v>8547.111069342403</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
         <v>8547.111069342402</v>
@@ -26522,7 +26524,7 @@
         <v>266257.2638632557</v>
       </c>
       <c r="C6" t="n">
-        <v>260483.186237195</v>
+        <v>260483.1862371947</v>
       </c>
       <c r="D6" t="n">
         <v>321059.508423863</v>
@@ -26537,25 +26539,25 @@
         <v>242656.2962170277</v>
       </c>
       <c r="H6" t="n">
-        <v>242656.296217028</v>
+        <v>242656.2962170277</v>
       </c>
       <c r="I6" t="n">
-        <v>242656.2962170279</v>
+        <v>242656.2962170277</v>
       </c>
       <c r="J6" t="n">
         <v>228655.0640767484</v>
       </c>
       <c r="K6" t="n">
-        <v>194399.3432833952</v>
+        <v>194399.3432833951</v>
       </c>
       <c r="L6" t="n">
         <v>242656.2962170278</v>
       </c>
       <c r="M6" t="n">
-        <v>242656.2962170278</v>
+        <v>242656.2962170277</v>
       </c>
       <c r="N6" t="n">
-        <v>242656.2962170278</v>
+        <v>242656.2962170277</v>
       </c>
       <c r="O6" t="n">
         <v>242656.2962170278</v>
@@ -27376,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>319.4984954233317</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>184.0650172911281</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>119.3993480979036</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146533</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>159.3857409777716</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>222.8456210324931</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>201.783679862813</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27622,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>342.8322390905863</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>327.8498700081638</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.14900920714487</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27752,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>15.41489867712124</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27853,7 +27855,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,10 +27909,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>41.13051272694173</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>147.9819277980378</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34702,16 +34704,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2110866.331575131</v>
+        <v>2042015.035133694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5084998.605840589</v>
+        <v>5084998.605840588</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>24.95505229511724</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="V3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="W3" t="n">
+        <v>47.13383555196375</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,58 +834,58 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>26.16190956546851</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>11.62493210760333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>190.3580865263562</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>69.90197782146215</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>164.2372956765101</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>96.43005249508282</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>61.68827609322837</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>88.6401485661975</v>
       </c>
       <c r="V15" t="n">
-        <v>226.526135781725</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,17 +1843,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>218.2545356023573</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>241.0142888776591</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88188178727695</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T20" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.0500184703206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,20 +2554,20 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.02892979786577</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>125.3463683772704</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>156.7701852745343</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>232.3303155802433</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>95.15725758733777</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>156.8566953852487</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,61 +3268,61 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>61.60271076108484</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>85.68170746940434</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>59.67606539615428</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>154.3436670675912</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2038249569697</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.82248702120288</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>64.4148156439625</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.73687329735785</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>80.73687329735785</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>80.73687329735785</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>80.73687329735785</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79137254815437</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>188.8429925093776</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>188.8429925093776</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>188.8429925093776</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="V2" t="n">
-        <v>188.8429925093776</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>134.7899329033677</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>134.7899329033677</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>134.7899329033677</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.4401811388256</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3871215328157</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4412,19 +4412,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>163.2132134803467</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4442,19 +4442,19 @@
         <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T4" t="n">
-        <v>58.33406192680583</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>187.623944761548</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>133.5708851555381</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F5" t="n">
-        <v>259.0827180527828</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>243.6254074314342</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X6" t="n">
-        <v>670.606730582354</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>798.1608972515351</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="W9" t="n">
-        <v>193.7341723913397</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X9" t="n">
-        <v>193.7341723913397</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>512.7568786610034</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="C12" t="n">
-        <v>512.7568786610034</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="D12" t="n">
-        <v>415.3527852316268</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="E12" t="n">
-        <v>256.1153302261713</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="F12" t="n">
-        <v>109.5807722530562</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5807722530562</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5150,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X12" t="n">
-        <v>512.7568786610034</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y12" t="n">
-        <v>512.7568786610034</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="13">
@@ -5223,10 +5223,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>284.0338015341832</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5360,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V15" t="n">
-        <v>735.2428769432372</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W15" t="n">
-        <v>491.7941002991371</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X15" t="n">
-        <v>491.7941002991371</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y15" t="n">
-        <v>284.0338015341832</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5466,19 +5466,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
         <v>19.28114311021272</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5545,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>372.3205348328715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>213.083079827416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>213.083079827416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>213.083079827416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>99.71394423499537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5703,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>152.8110551848245</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>777.5613083818946</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X21" t="n">
-        <v>569.7098081763618</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,13 +6010,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
         <v>749.627473042513</v>
@@ -6025,16 +6025,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6098,22 +6098,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>432.4774131586771</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>432.4774131586771</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>189.028636514577</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>189.028636514577</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6174,7 +6174,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6317,40 +6317,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>841.6462828333545</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>639.4596881921204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>639.4596881921204</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>639.4596881921204</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>396.0109115480204</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>396.0109115480204</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.2506127830665</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.8157010833278</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,16 +6545,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M30" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N30" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>805.7034330111067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>577.4798147474958</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>577.4798147474958</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>334.0310381033958</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>334.0310381033958</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y30" t="n">
-        <v>334.0310381033958</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="31">
@@ -6645,10 +6645,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>319.0683498528888</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>901.8321951459041</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>901.8321951459041</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>699.64560050467</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>699.64560050467</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>699.64560050467</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>699.64560050467</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>491.7941002991371</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7122,19 +7122,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.8157010833278</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C39" t="n">
-        <v>165.8157010833278</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D39" t="n">
-        <v>165.8157010833278</v>
+        <v>265.0657773776928</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>226.0945550188371</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>226.0945550188371</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X39" t="n">
-        <v>165.8157010833278</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y39" t="n">
-        <v>165.8157010833278</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="40">
@@ -7356,13 +7356,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y41" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V41" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W41" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X41" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
         <v>20.03527576299844</v>
@@ -7496,46 +7496,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7614,7 +7614,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y44" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7733,13 +7733,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
         <v>712.019119383956</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>945.044542357906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>945.044542357906</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>945.044542357906</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>716.820924094295</v>
+        <v>523.3877459726342</v>
       </c>
       <c r="V45" t="n">
-        <v>716.820924094295</v>
+        <v>523.3877459726342</v>
       </c>
       <c r="W45" t="n">
-        <v>716.820924094295</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="X45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>303.8835549304717</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10433,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,10 +10676,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>51.01501306955593</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>27.7083567581867</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23463,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0803368506399</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23627,13 +23627,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="V15" t="n">
-        <v>6.274451367700266</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275655</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>151.4765650761118</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>145.2236497783945</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>10.51475106413812</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T20" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>15.25045261077312</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T23" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.63267730698374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24414,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>248.0803368506399</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>116.4078829812627</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>150.6542413059721</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>80.42661682620709</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2811697535276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>317.3055321907214</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>43.39454342028733</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>266.9721829858474</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>19.01533732759322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>77.55124140097797</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>94.83828777567092</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.55512339155829</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.8939308547783</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>26.55373676709212</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>146.0969198073232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>18.36483192072453</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5300167065108</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25918,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>81.33534713144026</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>161.5265664370123</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26046,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.33425578299914</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>324072.8563811702</v>
+        <v>324072.85638117</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="F2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="G2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="H2" t="n">
         <v>265857.0760501318</v>
@@ -26337,7 +26337,7 @@
         <v>265857.0760501318</v>
       </c>
       <c r="J2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="K2" t="n">
         <v>265857.0760501318</v>
@@ -26349,13 +26349,13 @@
         <v>265857.0760501318</v>
       </c>
       <c r="N2" t="n">
+        <v>265857.0760501319</v>
+      </c>
+      <c r="O2" t="n">
         <v>265857.0760501318</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>265857.0760501319</v>
-      </c>
-      <c r="P2" t="n">
-        <v>265857.0760501318</v>
       </c>
     </row>
     <row r="3">
@@ -26450,7 +26450,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266257.2638632557</v>
+        <v>266257.2638632555</v>
       </c>
       <c r="C6" t="n">
-        <v>260483.1862371947</v>
+        <v>260483.186237195</v>
       </c>
       <c r="D6" t="n">
-        <v>321059.508423863</v>
+        <v>321059.5084238633</v>
       </c>
       <c r="E6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="F6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="G6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="H6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969872</v>
       </c>
       <c r="I6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969872</v>
       </c>
       <c r="J6" t="n">
-        <v>228655.0640767484</v>
+        <v>216437.053456708</v>
       </c>
       <c r="K6" t="n">
-        <v>194399.3432833951</v>
+        <v>182181.3326633546</v>
       </c>
       <c r="L6" t="n">
-        <v>242656.2962170278</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="M6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="N6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
       <c r="O6" t="n">
-        <v>242656.2962170278</v>
+        <v>230438.2855969872</v>
       </c>
       <c r="P6" t="n">
-        <v>242656.2962170277</v>
+        <v>230438.2855969873</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>184.0650172911281</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.3305891818766</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3993480979036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27514,16 +27514,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.5611476089558</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27587,13 +27587,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>201.783679862813</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.072124342145</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.1527827970777</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>327.8498700081638</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>15.41489867712124</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>135.7807179558422</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>35.92743301831146</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>147.9819277980378</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.35040662570936</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9091475161414</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,10 +37396,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
